--- a/Unity/Assets/Config/Excel/SystemValueConfig@cs.xlsx
+++ b/Unity/Assets/Config/Excel/SystemValueConfig@cs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17810"/>
+    <workbookView windowWidth="18330" windowHeight="7570"/>
   </bookViews>
   <sheets>
     <sheet name="SystemValueConfig" sheetId="1" r:id="rId1"/>
@@ -42,12 +42,34 @@
         </r>
       </text>
     </comment>
+    <comment ref="D7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+一个账号中的一个区服下，最多可以创建一个角色</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>#</t>
   </si>
@@ -86,6 +108,12 @@
   </si>
   <si>
     <t>DefaultMultilingual</t>
+  </si>
+  <si>
+    <t>单区服最大角色创建数量</t>
+  </si>
+  <si>
+    <t>MaxRoleInfoCreate</t>
   </si>
 </sst>
 </file>
@@ -1095,16 +1123,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:H6"/>
+  <dimension ref="A2:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y8" sqref="Y8"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="9" style="2"/>
-    <col min="4" max="4" width="18.5454545454545" style="2" customWidth="1"/>
+    <col min="4" max="4" width="25.2727272727273" style="2" customWidth="1"/>
     <col min="5" max="5" width="21.9090909090909" style="2" customWidth="1"/>
     <col min="6" max="6" width="17.3636363636364" style="2" customWidth="1"/>
     <col min="7" max="7" width="13.2727272727273" style="2" customWidth="1"/>
@@ -1191,6 +1219,20 @@
         <v>1</v>
       </c>
     </row>
+    <row r="7" spans="3:6">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
